--- a/Linux_Priv_checklist.xlsx
+++ b/Linux_Priv_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwi\Documents\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1222CD-4E9B-4937-9518-1DCBEF64B734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C79FB5-E4BD-4252-8AB9-5EB73529F93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C43AD4A5-3028-49D3-8746-41ECDD032E70}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="322">
   <si>
     <t>Linux Smart Enum</t>
   </si>
@@ -1108,9 +1108,6 @@
     <t xml:space="preserve">https://www.hackingarticles.in/linux-privilege-escalation-using-capabilities/ </t>
   </si>
   <si>
-    <t>cat history</t>
-  </si>
-  <si>
     <t>cat .bash_history</t>
   </si>
   <si>
@@ -1408,12 +1405,33 @@
   <si>
     <t>.\lse.sh -l1</t>
   </si>
+  <si>
+    <t>Reference:</t>
+  </si>
+  <si>
+    <t>https://www.hackingarticles.in/privilege-escalation-cheatsheet-vulnhub/</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>All users command history</t>
+  </si>
+  <si>
+    <t>user command history</t>
+  </si>
+  <si>
+    <t>web app config file - first taget of exploiting web app</t>
+  </si>
+  <si>
+    <t>first target if credential avail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,14 +1547,6 @@
     <font>
       <sz val="14"/>
       <color theme="7" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1772,7 +1782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,9 +1864,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1918,12 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1952,14 +1953,29 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2276,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956D71DB-650F-47AA-8611-8644085519FB}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,50 +2308,50 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58" t="s">
-        <v>295</v>
+      <c r="B2" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2355,8 +2371,8 @@
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>296</v>
+      <c r="B9" s="28" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2495,1587 +2511,1604 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+      <c r="B29" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="38" t="s">
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="18" t="s">
+    <row r="39" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+    <row r="42" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C42" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18" t="s">
+    <row r="43" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="38" t="s">
+    <row r="44" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D45" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="20" t="s">
+    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="17"/>
+      <c r="C46" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18" t="s">
+    <row r="47" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="12"/>
+    <row r="48" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="17"/>
-      <c r="C51" s="20" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="51" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="17"/>
+      <c r="C54" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C55" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="17"/>
-      <c r="C55" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="C58" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C61" s="6" t="s">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="25" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="C60" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B62" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="28"/>
+      <c r="C62" s="64"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="32"/>
+      <c r="C63" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
-      <c r="C64" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>95</v>
+      <c r="C64" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="34"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="34"/>
+      <c r="B67" s="33" t="s">
+        <v>299</v>
+      </c>
       <c r="C67" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="34" t="s">
-        <v>300</v>
-      </c>
+      <c r="B68" s="33"/>
       <c r="C68" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="34"/>
-      <c r="C69" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="35"/>
-      <c r="C70" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="30"/>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="29"/>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B71" s="40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>115</v>
+      <c r="B73" s="33"/>
+      <c r="C73" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="34"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="34"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-      <c r="C79" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="34" t="s">
+      <c r="B79" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C79" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="35"/>
-      <c r="C81" s="21" t="s">
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="34"/>
+      <c r="C80" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D80" s="35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
-    </row>
-    <row r="83" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43" t="s">
+    <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="29"/>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C82" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D82" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
-    </row>
-    <row r="85" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" s="38" t="s">
+    <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="29"/>
+    </row>
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D84" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B86" s="45" t="s">
+    <row r="85" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B85" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C85" s="45" t="s">
         <v>129</v>
       </c>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="33"/>
+      <c r="C86" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="34"/>
-      <c r="C87" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="35" t="s">
+    <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
-    </row>
-    <row r="90" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="38" t="s">
+    <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="29"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C89" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D89" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="34"/>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="33"/>
+      <c r="C90" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="33"/>
       <c r="C91" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
-      <c r="C92" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D91" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B93" s="34" t="s">
+    <row r="92" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B92" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C92" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="34"/>
-      <c r="C94" s="20" t="s">
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="33"/>
+      <c r="C93" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D93" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="35" t="s">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="29"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="33"/>
+      <c r="C98" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="33"/>
+      <c r="C99" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" s="33"/>
+      <c r="C102" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="33"/>
+      <c r="C103" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D95" s="11" t="s">
+      <c r="C104" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="29"/>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-    </row>
-    <row r="97" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B97" s="41" t="s">
+    <row r="108" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" s="30"/>
+      <c r="C108" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="30"/>
+      <c r="C109" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="30"/>
+      <c r="C110" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="29"/>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113" s="14"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B114" s="33"/>
+      <c r="C114" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B115" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B116" s="33"/>
+      <c r="C116" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B117" s="33"/>
+      <c r="C117" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="33"/>
+      <c r="C118" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="38"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="22"/>
+    </row>
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="29"/>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124" s="29"/>
+    </row>
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" s="32"/>
+      <c r="C125" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="33"/>
+      <c r="C127" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" s="33"/>
+      <c r="C128" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="29"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="48" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="14"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="34"/>
-      <c r="C99" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="34"/>
-      <c r="C100" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="34"/>
-      <c r="C103" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="34"/>
-      <c r="C104" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="35" t="s">
+      <c r="B131" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B132" s="33"/>
+      <c r="C132" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="33"/>
+      <c r="C133" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B134" s="33"/>
+      <c r="C134" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" s="33"/>
+      <c r="C135" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D105" s="11" t="s">
+      <c r="C136" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="30"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="37" t="s">
+    <row r="137" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="29"/>
+      <c r="C137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B138" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C107" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="31"/>
-      <c r="C109" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B110" s="31"/>
-      <c r="C110" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="31"/>
-      <c r="C111" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="32" t="s">
+      <c r="C138" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="33"/>
+      <c r="C139" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D139" s="66"/>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="33"/>
+      <c r="C140" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D140" s="66"/>
+    </row>
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B141" s="33"/>
+      <c r="C141" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B142" s="33"/>
+      <c r="C142" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B143" s="33"/>
+      <c r="C143" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D112" s="11" t="s">
+      <c r="C144" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="29"/>
+      <c r="C145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B146" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" s="14"/>
+    </row>
+    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B147" s="33"/>
+      <c r="C147" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="33"/>
+      <c r="C148" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D148" s="66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" s="33"/>
+      <c r="C149" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" s="66"/>
+    </row>
+    <row r="150" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30"/>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D114" s="14"/>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" s="34"/>
-      <c r="C115" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B116" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="34"/>
-      <c r="C117" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="34"/>
-      <c r="C118" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D118" s="9"/>
-    </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="34"/>
-      <c r="C119" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="35" t="s">
+    <row r="151" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="29"/>
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B152" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B153" s="33"/>
+      <c r="C153" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B154" s="33"/>
+      <c r="C154" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D120" s="11" t="s">
+      <c r="C155" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="39"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B122" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C123" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B124" s="30"/>
-    </row>
-    <row r="125" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125" s="30"/>
-    </row>
-    <row r="126" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="34"/>
-      <c r="C128" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="34"/>
-      <c r="C129" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="35" t="s">
+    <row r="156" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="29"/>
+    </row>
+    <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B157" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="34"/>
+      <c r="C158" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="29"/>
+    </row>
+    <row r="160" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="29"/>
+    </row>
+    <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B161" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D161" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="33"/>
+      <c r="C162" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B163" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C130" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="30"/>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="B132" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="D132" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B133" s="34"/>
-      <c r="C133" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="34"/>
-      <c r="C134" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D134" s="9"/>
-    </row>
-    <row r="135" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B135" s="34"/>
-      <c r="C135" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" s="34"/>
-      <c r="C136" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C137" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="30"/>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D139" s="50" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" s="34"/>
-      <c r="C140" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D140" s="51"/>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" s="34"/>
-      <c r="C141" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D141" s="51"/>
-    </row>
-    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B142" s="34"/>
-      <c r="C142" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B143" s="34"/>
-      <c r="C143" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="34"/>
-      <c r="C144" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="30"/>
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D147" s="14"/>
-    </row>
-    <row r="148" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B148" s="34"/>
-      <c r="C148" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="34"/>
-      <c r="C149" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D149" s="51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B150" s="34"/>
-      <c r="C150" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D150" s="51"/>
-    </row>
-    <row r="151" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C151" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="30"/>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D153" s="14"/>
-    </row>
-    <row r="154" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B154" s="34"/>
-      <c r="C154" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" s="34"/>
-      <c r="C155" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="30"/>
-    </row>
-    <row r="158" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C158" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D158" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="35"/>
-      <c r="C159" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="30"/>
-    </row>
-    <row r="161" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B161" s="30"/>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D162" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B163" s="34"/>
       <c r="C163" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C164" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C165" s="21" t="s">
+      <c r="C164" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D165" s="15" t="s">
+      <c r="D164" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="30"/>
-    </row>
-    <row r="167" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B167" s="30"/>
+    <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B165" s="29"/>
+    </row>
+    <row r="166" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B166" s="29"/>
+    </row>
+    <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="32"/>
+      <c r="C167" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B168" s="33"/>
-      <c r="C168" s="52" t="s">
+      <c r="C168" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="D168" s="14"/>
+      <c r="D168" s="9" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" s="34"/>
-      <c r="C169" s="53" t="s">
+      <c r="B169" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D169" s="9"/>
+      <c r="C169" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="34" t="s">
+      <c r="B170" s="33"/>
+      <c r="C170" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C170" s="53" t="s">
-        <v>107</v>
-      </c>
       <c r="D170" s="9"/>
     </row>
     <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="34"/>
+      <c r="B171" s="33"/>
       <c r="C171" s="20" t="s">
         <v>243</v>
       </c>
       <c r="D171" s="9"/>
     </row>
     <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="34"/>
+      <c r="B172" s="33" t="s">
+        <v>244</v>
+      </c>
       <c r="C172" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C173" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D173" s="9"/>
-    </row>
-    <row r="174" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="35" t="s">
+      <c r="C173" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C174" s="21" t="s">
+      <c r="D173" s="11"/>
+    </row>
+    <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B174" s="29"/>
+    </row>
+    <row r="175" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D174" s="11"/>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B175" s="30"/>
-    </row>
-    <row r="176" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B176" s="40" t="s">
+      <c r="B175" s="39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B176" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="19" t="s">
         <v>251</v>
       </c>
+      <c r="D176" s="14" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B177" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C177" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="D177" s="14" t="s">
+      <c r="B177" s="33"/>
+      <c r="C177" s="20" t="s">
         <v>253</v>
       </c>
+      <c r="D177" s="9"/>
     </row>
     <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B178" s="34"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D178" s="9"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B179" s="34"/>
-      <c r="C179" s="20" t="s">
+      <c r="D178" s="9" t="s">
         <v>255</v>
       </c>
+    </row>
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B179" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C179" s="26" t="s">
+        <v>257</v>
+      </c>
       <c r="D179" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B180" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C180" s="26" t="s">
         <v>258</v>
       </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B180" s="33"/>
+      <c r="C180" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="D180" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" s="34"/>
-      <c r="C181" s="20" t="s">
         <v>260</v>
       </c>
+    </row>
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B181" s="33"/>
+      <c r="C181" s="26" t="s">
+        <v>261</v>
+      </c>
       <c r="D181" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B182" s="33"/>
+      <c r="C182" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B184" s="29"/>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B185" s="29"/>
+    </row>
+    <row r="186" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B186" s="39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B187" s="32"/>
+      <c r="C187" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="34"/>
+      <c r="C188" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B189" s="29"/>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B190" s="29"/>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B191" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B192" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B193" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B194" s="33"/>
+      <c r="C194" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D194" s="9"/>
+    </row>
+    <row r="195" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C195" s="47" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B182" s="34"/>
-      <c r="C182" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" s="34"/>
-      <c r="C183" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="30"/>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B186" s="30"/>
-    </row>
-    <row r="187" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B187" s="40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D188" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="35"/>
-      <c r="C189" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="30"/>
-    </row>
-    <row r="191" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B191" s="30"/>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B193" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="C193" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B194" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="C194" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B195" s="34"/>
-      <c r="C195" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D195" s="9"/>
-    </row>
-    <row r="196" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="35" t="s">
+      <c r="D195" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>312</v>
-      </c>
+    </row>
+    <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B196" s="29"/>
     </row>
     <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" s="30"/>
+      <c r="B197" s="29"/>
     </row>
     <row r="198" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B198" s="30"/>
-    </row>
-    <row r="199" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B199" s="30"/>
+      <c r="B198" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C198" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="D198" s="68"/>
+    </row>
+    <row r="199" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="29"/>
+      <c r="C199" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="D199" s="69"/>
     </row>
     <row r="200" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B200" s="30"/>
+      <c r="B200" s="29"/>
     </row>
     <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B201" s="30"/>
+      <c r="B201" s="29"/>
     </row>
     <row r="202" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B202" s="30"/>
+      <c r="B202" s="29"/>
     </row>
     <row r="203" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="30"/>
+      <c r="B203" s="29"/>
     </row>
     <row r="204" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="30"/>
+      <c r="B204" s="29"/>
     </row>
     <row r="205" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B205" s="30"/>
+      <c r="B205" s="29"/>
     </row>
     <row r="206" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B206" s="30"/>
+      <c r="B206" s="29"/>
     </row>
     <row r="207" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B207" s="30"/>
+      <c r="B207" s="29"/>
     </row>
     <row r="208" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B208" s="30"/>
+      <c r="B208" s="29"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B209" s="30"/>
+      <c r="B209" s="29"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B210" s="30"/>
+      <c r="B210" s="29"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B211" s="30"/>
+      <c r="B211" s="29"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B212" s="30"/>
+      <c r="B212" s="29"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B213" s="30"/>
+      <c r="B213" s="29"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B214" s="30"/>
+      <c r="B214" s="29"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B215" s="30"/>
+      <c r="B215" s="29"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B216" s="30"/>
+      <c r="B216" s="29"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B217" s="30"/>
+      <c r="B217" s="29"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B218" s="30"/>
+      <c r="B218" s="29"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B219" s="30"/>
+      <c r="B219" s="29"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B220" s="30"/>
+      <c r="B220" s="29"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B221" s="30"/>
+      <c r="B221" s="29"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B222" s="30"/>
+      <c r="B222" s="29"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B223" s="30"/>
+      <c r="B223" s="29"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B224" s="30"/>
+      <c r="B224" s="29"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B225" s="30"/>
+      <c r="B225" s="29"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B226" s="30"/>
+      <c r="B226" s="29"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B227" s="30"/>
+      <c r="B227" s="29"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B228" s="30"/>
+      <c r="B228" s="29"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B229" s="30"/>
+      <c r="B229" s="29"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B230" s="30"/>
+      <c r="B230" s="29"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B231" s="30"/>
+      <c r="B231" s="29"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B232" s="30"/>
+      <c r="B232" s="29"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B233" s="30"/>
+      <c r="B233" s="29"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B234" s="30"/>
+      <c r="B234" s="29"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B235" s="30"/>
+      <c r="B235" s="29"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="30"/>
+      <c r="B236" s="29"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B237" s="30"/>
+      <c r="B237" s="29"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B238" s="30"/>
+      <c r="B238" s="29"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B239" s="30"/>
+      <c r="B239" s="29"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B240" s="30"/>
+      <c r="B240" s="29"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B241" s="30"/>
-    </row>
-    <row r="242" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B242" s="30"/>
+      <c r="B241" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="D149:D150"/>
+  <mergeCells count="5">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="C198:D198"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" xr:uid="{1B51850E-D4A5-4D3B-B5CA-BFDAD2200FA7}"/>
-    <hyperlink ref="C80" r:id="rId2" xr:uid="{8C950BDE-81F5-4740-B74B-F7D067E0CCBB}"/>
-    <hyperlink ref="D165" r:id="rId3" xr:uid="{0F9E6D8D-235A-495E-8CDB-6C8E3BC91015}"/>
+    <hyperlink ref="C79" r:id="rId2" xr:uid="{8C950BDE-81F5-4740-B74B-F7D067E0CCBB}"/>
+    <hyperlink ref="D164" r:id="rId3" xr:uid="{0F9E6D8D-235A-495E-8CDB-6C8E3BC91015}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{FFF49EE3-CC53-4E36-BDAE-099ABF1E422F}"/>
-    <hyperlink ref="C61" r:id="rId5" xr:uid="{9B33DD66-CED2-4304-93EE-42438F17C4D5}"/>
+    <hyperlink ref="C60" r:id="rId5" xr:uid="{9B33DD66-CED2-4304-93EE-42438F17C4D5}"/>
+    <hyperlink ref="C198" r:id="rId6" xr:uid="{FDBC0818-BB8A-4E98-B85C-67A604430016}"/>
+    <hyperlink ref="C199" r:id="rId7" xr:uid="{0F77255F-A7FD-45A8-9B7E-F54EC8D7BD24}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId6"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>